--- a/core/utils/cadenderecoCUBATAO.xlsx
+++ b/core/utils/cadenderecoCUBATAO.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\PEDIDOS DE CUBATÃO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2DC21E-3F4E-4002-BD3E-86D545164DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594768EF-60FF-4105-9F88-C06C63A91EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="120">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -394,345 +385,6 @@
   </si>
   <si>
     <t>CUBATÃO</t>
-  </si>
-  <si>
-    <t>R. do Alojamento</t>
-  </si>
-  <si>
-    <t>s/n.º</t>
-  </si>
-  <si>
-    <t>Av. Tiradentes</t>
-  </si>
-  <si>
-    <t>Rua Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>R. José Rodrigues dos Santos</t>
-  </si>
-  <si>
-    <t>Rua Ananias Gomes Ferreira</t>
-  </si>
-  <si>
-    <t>Rua Salgado Filho</t>
-  </si>
-  <si>
-    <t>Rua Pedro Alvares Cabral</t>
-  </si>
-  <si>
-    <t>Rua Embaixador Pedro de Toledo</t>
-  </si>
-  <si>
-    <t>Rua São José de Castro</t>
-  </si>
-  <si>
-    <t>R. Martim Afonso</t>
-  </si>
-  <si>
-    <t>Rua Dezessete</t>
-  </si>
-  <si>
-    <t>Cota 200</t>
-  </si>
-  <si>
-    <t>Fabril</t>
-  </si>
-  <si>
-    <t>Ilha Caraguatá</t>
-  </si>
-  <si>
-    <t>Vila Santa Rosa</t>
-  </si>
-  <si>
-    <t>Vale Verde</t>
-  </si>
-  <si>
-    <t>Jardim Costa e Silva</t>
-  </si>
-  <si>
-    <t>Vila Natal</t>
-  </si>
-  <si>
-    <t>Jardim Nova Republica</t>
-  </si>
-  <si>
-    <t>Vila Nova</t>
-  </si>
-  <si>
-    <t>Casqueiro</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>11548-000</t>
-  </si>
-  <si>
-    <t>11543-100</t>
-  </si>
-  <si>
-    <t>11530-010</t>
-  </si>
-  <si>
-    <t>11542-090</t>
-  </si>
-  <si>
-    <t>11500-270</t>
-  </si>
-  <si>
-    <t>11538-140</t>
-  </si>
-  <si>
-    <t>11534-000</t>
-  </si>
-  <si>
-    <t>11520-050</t>
-  </si>
-  <si>
-    <t>11500-600</t>
-  </si>
-  <si>
-    <t>11535-010</t>
-  </si>
-  <si>
-    <t>11510-090</t>
-  </si>
-  <si>
-    <t>R. São Francisco de Assis</t>
-  </si>
-  <si>
-    <t>R. Assembléia de Deus</t>
-  </si>
-  <si>
-    <t>R. Papa João Paulo I</t>
-  </si>
-  <si>
-    <t>Av.Amazonas</t>
-  </si>
-  <si>
-    <t>Rua São Franscisco de Assis</t>
-  </si>
-  <si>
-    <t>Rua Marechal Rondon</t>
-  </si>
-  <si>
-    <t>Av. São Leopoldo</t>
-  </si>
-  <si>
-    <t>Rua Vereador Luíz Peruzzi Neto</t>
-  </si>
-  <si>
-    <t>Rua Marechal Costa e Silva</t>
-  </si>
-  <si>
-    <t>Rua Vereador Wilson Alves</t>
-  </si>
-  <si>
-    <t>Praça Getúlio Vargas</t>
-  </si>
-  <si>
-    <t>Av. Martins Fontes</t>
-  </si>
-  <si>
-    <t>Rua Espanha</t>
-  </si>
-  <si>
-    <t>Av. Ferroviário</t>
-  </si>
-  <si>
-    <t>Rua Martim Afonso</t>
-  </si>
-  <si>
-    <t>Rua Maria do Carmo</t>
-  </si>
-  <si>
-    <t>Av. Beira Mar</t>
-  </si>
-  <si>
-    <t>Rua São João</t>
-  </si>
-  <si>
-    <t>Rua Fued Farah</t>
-  </si>
-  <si>
-    <t>Rua Vereador Paulo Enos Pontes</t>
-  </si>
-  <si>
-    <t>Rua Júlio Amaro Ribeiro</t>
-  </si>
-  <si>
-    <t>Rua Santa Júlia</t>
-  </si>
-  <si>
-    <t>Rua João Veiga</t>
-  </si>
-  <si>
-    <t>Av. Nações Unidas</t>
-  </si>
-  <si>
-    <t>R. Júlio Amaro Ribeiro</t>
-  </si>
-  <si>
-    <t>Rua José Rodrigues dos Santos</t>
-  </si>
-  <si>
-    <t>R. das Flores</t>
-  </si>
-  <si>
-    <t>Av. Nossa Senhora da Lapa</t>
-  </si>
-  <si>
-    <t>Av. Nove de Abril</t>
-  </si>
-  <si>
-    <t>Praça Independência</t>
-  </si>
-  <si>
-    <t>Rua Sergipe</t>
-  </si>
-  <si>
-    <t>Rua Nossa Senhora de Fátima</t>
-  </si>
-  <si>
-    <t>Av.Martins Fontes</t>
-  </si>
-  <si>
-    <t>Vila Esperança</t>
-  </si>
-  <si>
-    <t>Jardim Casqueiro</t>
-  </si>
-  <si>
-    <t>Jardim 31 de Março</t>
-  </si>
-  <si>
-    <t>Jardim Anchieta</t>
-  </si>
-  <si>
-    <t>Centro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vila Natal</t>
-  </si>
-  <si>
-    <t>Jardim Nova República</t>
-  </si>
-  <si>
-    <t>Vila dos Pescadores</t>
-  </si>
-  <si>
-    <t>Vila São José</t>
-  </si>
-  <si>
-    <t>Vila Couto</t>
-  </si>
-  <si>
-    <t>Pq. São Luíz</t>
-  </si>
-  <si>
-    <t>Jardim Indústrias</t>
-  </si>
-  <si>
-    <t>Pq. Fernando Jorge</t>
-  </si>
-  <si>
-    <t>Vila Light</t>
-  </si>
-  <si>
-    <t>Sítio Cafezal</t>
-  </si>
-  <si>
-    <t>11538-025</t>
-  </si>
-  <si>
-    <t>11540-320</t>
-  </si>
-  <si>
-    <t>11525-090</t>
-  </si>
-  <si>
-    <t>11530- 030</t>
-  </si>
-  <si>
-    <t>11525-100</t>
-  </si>
-  <si>
-    <t>11533-260</t>
-  </si>
-  <si>
-    <t>11510-001</t>
-  </si>
-  <si>
-    <t>11520-060</t>
-  </si>
-  <si>
-    <t>11538-105</t>
-  </si>
-  <si>
-    <t>11525-130</t>
-  </si>
-  <si>
-    <t>11533-510</t>
-  </si>
-  <si>
-    <t>11531-010</t>
-  </si>
-  <si>
-    <t>11535-005</t>
-  </si>
-  <si>
-    <t>11523-000</t>
-  </si>
-  <si>
-    <t>11520-160</t>
-  </si>
-  <si>
-    <t>11530-080</t>
-  </si>
-  <si>
-    <t>11530-040</t>
-  </si>
-  <si>
-    <t>11531-000</t>
-  </si>
-  <si>
-    <t>11533-040</t>
-  </si>
-  <si>
-    <t>11510-290</t>
-  </si>
-  <si>
-    <t>11533-490</t>
-  </si>
-  <si>
-    <t>11500-500</t>
-  </si>
-  <si>
-    <t>11535-310</t>
-  </si>
-  <si>
-    <t>11500-280</t>
-  </si>
-  <si>
-    <t>11538-000</t>
-  </si>
-  <si>
-    <t>11500-990</t>
-  </si>
-  <si>
-    <t>11555-039</t>
-  </si>
-  <si>
-    <t>11500-040</t>
-  </si>
-  <si>
-    <t>11542-050</t>
-  </si>
-  <si>
-    <t>11538-100</t>
-  </si>
-  <si>
-    <t>11538-080</t>
   </si>
 </sst>
 </file>
@@ -1463,23 +1115,23 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3"/>
-    <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="26.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="16.28515625" style="3"/>
+    <col min="1" max="1" width="16.33203125" style="3"/>
+    <col min="2" max="2" width="9.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="61.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="26.88671875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="16.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -1555,21 +1207,11 @@
         <v>16</v>
       </c>
       <c r="E2" s="31"/>
-      <c r="F2" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="24">
-        <v>50</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>143</v>
-      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="32" t="s">
         <v>119</v>
       </c>
@@ -1612,21 +1254,11 @@
         <v>18</v>
       </c>
       <c r="E3" s="31"/>
-      <c r="F3" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>144</v>
-      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="32" t="s">
         <v>119</v>
       </c>
@@ -1669,21 +1301,11 @@
         <v>20</v>
       </c>
       <c r="E4" s="26"/>
-      <c r="F4" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="24">
-        <v>191</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>145</v>
-      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="32" t="s">
         <v>119</v>
       </c>
@@ -1726,21 +1348,11 @@
         <v>22</v>
       </c>
       <c r="E5" s="26"/>
-      <c r="F5" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="24">
-        <v>325</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>152</v>
-      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="32" t="s">
         <v>119</v>
       </c>
@@ -1783,21 +1395,11 @@
         <v>24</v>
       </c>
       <c r="E6" s="31"/>
-      <c r="F6" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="24">
-        <v>100</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>153</v>
-      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="32" t="s">
         <v>119</v>
       </c>
@@ -1840,21 +1442,11 @@
         <v>26</v>
       </c>
       <c r="E7" s="31"/>
-      <c r="F7" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>146</v>
-      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="32" t="s">
         <v>119</v>
       </c>
@@ -1897,21 +1489,11 @@
         <v>28</v>
       </c>
       <c r="E8" s="31"/>
-      <c r="F8" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="24">
-        <v>130</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>147</v>
-      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="32" t="s">
         <v>119</v>
       </c>
@@ -1954,21 +1536,11 @@
         <v>30</v>
       </c>
       <c r="E9" s="31"/>
-      <c r="F9" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="24">
-        <v>34</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>148</v>
-      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="32" t="s">
         <v>119</v>
       </c>
@@ -2011,21 +1583,11 @@
         <v>32</v>
       </c>
       <c r="E10" s="31"/>
-      <c r="F10" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="24">
-        <v>133</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>149</v>
-      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="32" t="s">
         <v>119</v>
       </c>
@@ -2068,21 +1630,11 @@
         <v>34</v>
       </c>
       <c r="E11" s="31"/>
-      <c r="F11" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="24">
-        <v>670</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>150</v>
-      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="32" t="s">
         <v>119</v>
       </c>
@@ -2125,21 +1677,11 @@
         <v>36</v>
       </c>
       <c r="E12" s="31"/>
-      <c r="F12" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="24">
-        <v>102</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>151</v>
-      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="32" t="s">
         <v>119</v>
       </c>
@@ -2215,21 +1757,11 @@
         <v>38</v>
       </c>
       <c r="E14" s="31"/>
-      <c r="F14" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>202</v>
-      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="32" t="s">
         <v>119</v>
       </c>
@@ -2272,21 +1804,11 @@
         <v>40</v>
       </c>
       <c r="E15" s="31"/>
-      <c r="F15" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="G15" s="24">
-        <v>101</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>203</v>
-      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="32" t="s">
         <v>119</v>
       </c>
@@ -2329,21 +1851,11 @@
         <v>42</v>
       </c>
       <c r="E16" s="31"/>
-      <c r="F16" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="G16" s="24">
-        <v>1191</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>204</v>
-      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="32" t="s">
         <v>119</v>
       </c>
@@ -2386,21 +1898,11 @@
         <v>44</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" s="24">
-        <v>678</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>205</v>
-      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="32" t="s">
         <v>119</v>
       </c>
@@ -2443,21 +1945,11 @@
         <v>46</v>
       </c>
       <c r="E18" s="31"/>
-      <c r="F18" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="G18" s="24">
-        <v>270</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>206</v>
-      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="32" t="s">
         <v>119</v>
       </c>
@@ -2500,21 +1992,11 @@
         <v>48</v>
       </c>
       <c r="E19" s="31"/>
-      <c r="F19" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="24">
-        <v>552</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>207</v>
-      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="32" t="s">
         <v>119</v>
       </c>
@@ -2557,21 +2039,11 @@
         <v>50</v>
       </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="24">
-        <v>96</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>147</v>
-      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="32" t="s">
         <v>119</v>
       </c>
@@ -2614,21 +2086,11 @@
         <v>52</v>
       </c>
       <c r="E21" s="26"/>
-      <c r="F21" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" s="24">
-        <v>4000</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>208</v>
-      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="32" t="s">
         <v>119</v>
       </c>
@@ -2671,21 +2133,11 @@
         <v>54</v>
       </c>
       <c r="E22" s="31"/>
-      <c r="F22" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" s="24">
-        <v>785</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>209</v>
-      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="32" t="s">
         <v>119</v>
       </c>
@@ -2728,21 +2180,11 @@
         <v>56</v>
       </c>
       <c r="E23" s="31"/>
-      <c r="F23" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" s="24">
-        <v>601</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>153</v>
-      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="32" t="s">
         <v>119</v>
       </c>
@@ -2785,21 +2227,11 @@
         <v>58</v>
       </c>
       <c r="E24" s="31"/>
-      <c r="F24" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="G24" s="24">
-        <v>71</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>232</v>
-      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="32" t="s">
         <v>119</v>
       </c>
@@ -2842,21 +2274,11 @@
         <v>60</v>
       </c>
       <c r="E25" s="31"/>
-      <c r="F25" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>149</v>
-      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="32" t="s">
         <v>119</v>
       </c>
@@ -2899,21 +2321,11 @@
         <v>62</v>
       </c>
       <c r="E26" s="31"/>
-      <c r="F26" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="24">
-        <v>45</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>210</v>
-      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="32" t="s">
         <v>119</v>
       </c>
@@ -2956,21 +2368,11 @@
         <v>64</v>
       </c>
       <c r="E27" s="31"/>
-      <c r="F27" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27" s="24">
-        <v>979</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>211</v>
-      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="32" t="s">
         <v>119</v>
       </c>
@@ -3013,21 +2415,11 @@
         <v>66</v>
       </c>
       <c r="E28" s="31"/>
-      <c r="F28" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>212</v>
-      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
       <c r="K28" s="32" t="s">
         <v>119</v>
       </c>
@@ -3070,21 +2462,11 @@
         <v>68</v>
       </c>
       <c r="E29" s="31"/>
-      <c r="F29" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>213</v>
-      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="32" t="s">
         <v>119</v>
       </c>
@@ -3127,21 +2509,11 @@
         <v>70</v>
       </c>
       <c r="E30" s="31"/>
-      <c r="F30" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="24">
-        <v>140</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>231</v>
-      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="32" t="s">
         <v>119</v>
       </c>
@@ -3184,21 +2556,11 @@
         <v>72</v>
       </c>
       <c r="E31" s="31"/>
-      <c r="F31" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="G31" s="24">
-        <v>177</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="J31" s="24" t="s">
-        <v>230</v>
-      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="32" t="s">
         <v>119</v>
       </c>
@@ -3241,21 +2603,11 @@
         <v>74</v>
       </c>
       <c r="E32" s="26"/>
-      <c r="F32" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I32" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>214</v>
-      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="24"/>
       <c r="K32" s="32" t="s">
         <v>119</v>
       </c>
@@ -3298,21 +2650,11 @@
         <v>76</v>
       </c>
       <c r="E33" s="31"/>
-      <c r="F33" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="G33" s="24">
-        <v>575</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="J33" s="24" t="s">
-        <v>215</v>
-      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="24"/>
       <c r="K33" s="32" t="s">
         <v>119</v>
       </c>
@@ -3355,21 +2697,11 @@
         <v>78</v>
       </c>
       <c r="E34" s="31"/>
-      <c r="F34" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="24">
-        <v>106</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="J34" s="24" t="s">
-        <v>216</v>
-      </c>
+      <c r="F34" s="31"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="24"/>
       <c r="K34" s="32" t="s">
         <v>119</v>
       </c>
@@ -3412,21 +2744,11 @@
         <v>80</v>
       </c>
       <c r="E35" s="31"/>
-      <c r="F35" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="G35" s="24">
-        <v>1392</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="J35" s="24" t="s">
-        <v>217</v>
-      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="24"/>
       <c r="K35" s="32" t="s">
         <v>119</v>
       </c>
@@ -3469,21 +2791,11 @@
         <v>82</v>
       </c>
       <c r="E36" s="31"/>
-      <c r="F36" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="G36" s="24">
-        <v>1350</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="J36" s="24" t="s">
-        <v>218</v>
-      </c>
+      <c r="F36" s="31"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="24"/>
       <c r="K36" s="32" t="s">
         <v>119</v>
       </c>
@@ -3526,21 +2838,11 @@
         <v>84</v>
       </c>
       <c r="E37" s="31"/>
-      <c r="F37" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="G37" s="24">
-        <v>160</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I37" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="J37" s="24" t="s">
-        <v>145</v>
-      </c>
+      <c r="F37" s="31"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="24"/>
       <c r="K37" s="32" t="s">
         <v>119</v>
       </c>
@@ -3583,21 +2885,11 @@
         <v>86</v>
       </c>
       <c r="E38" s="31"/>
-      <c r="F38" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="J38" s="24" t="s">
-        <v>219</v>
-      </c>
+      <c r="F38" s="31"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="24"/>
       <c r="K38" s="32" t="s">
         <v>119</v>
       </c>
@@ -3640,21 +2932,11 @@
         <v>88</v>
       </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="G39" s="24">
-        <v>258</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I39" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>220</v>
-      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="24"/>
       <c r="K39" s="32" t="s">
         <v>119</v>
       </c>
@@ -3697,21 +2979,11 @@
         <v>90</v>
       </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="G40" s="24">
-        <v>1242</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I40" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="J40" s="24" t="s">
-        <v>204</v>
-      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="24"/>
       <c r="K40" s="32" t="s">
         <v>119</v>
       </c>
@@ -3754,21 +3026,11 @@
         <v>92</v>
       </c>
       <c r="E41" s="26"/>
-      <c r="F41" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="G41" s="24">
-        <v>50</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I41" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="J41" s="24" t="s">
-        <v>221</v>
-      </c>
+      <c r="F41" s="35"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="24"/>
       <c r="K41" s="32" t="s">
         <v>119</v>
       </c>
@@ -3811,21 +3073,11 @@
         <v>94</v>
       </c>
       <c r="E42" s="26"/>
-      <c r="F42" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I42" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="J42" s="24" t="s">
-        <v>222</v>
-      </c>
+      <c r="F42" s="35"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="24"/>
       <c r="K42" s="32" t="s">
         <v>119</v>
       </c>
@@ -3868,21 +3120,11 @@
         <v>96</v>
       </c>
       <c r="E43" s="26"/>
-      <c r="F43" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="G43" s="24">
-        <v>201</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I43" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="J43" s="24" t="s">
-        <v>223</v>
-      </c>
+      <c r="F43" s="35"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="24"/>
       <c r="K43" s="32" t="s">
         <v>119</v>
       </c>
@@ -3925,21 +3167,11 @@
         <v>98</v>
       </c>
       <c r="E44" s="26"/>
-      <c r="F44" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="G44" s="24">
-        <v>50</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="J44" s="24" t="s">
-        <v>224</v>
-      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="24"/>
       <c r="K44" s="32" t="s">
         <v>119</v>
       </c>
@@ -3982,21 +3214,11 @@
         <v>100</v>
       </c>
       <c r="E45" s="35"/>
-      <c r="F45" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="G45" s="24">
-        <v>101</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I45" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="J45" s="24" t="s">
-        <v>203</v>
-      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
       <c r="K45" s="32" t="s">
         <v>119</v>
       </c>
@@ -4039,21 +3261,11 @@
         <v>102</v>
       </c>
       <c r="E46" s="35"/>
-      <c r="F46" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="G46" s="24">
-        <v>60</v>
-      </c>
-      <c r="H46" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I46" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="J46" s="24" t="s">
-        <v>215</v>
-      </c>
+      <c r="F46" s="35"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="24"/>
       <c r="K46" s="32" t="s">
         <v>119</v>
       </c>
@@ -4096,21 +3308,11 @@
         <v>104</v>
       </c>
       <c r="E47" s="35"/>
-      <c r="F47" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="G47" s="24">
-        <v>201</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I47" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="J47" s="24" t="s">
-        <v>225</v>
-      </c>
+      <c r="F47" s="35"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="24"/>
       <c r="K47" s="32" t="s">
         <v>119</v>
       </c>
@@ -4153,21 +3355,11 @@
         <v>106</v>
       </c>
       <c r="E48" s="31"/>
-      <c r="F48" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I48" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="J48" s="24" t="s">
-        <v>226</v>
-      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="24"/>
       <c r="K48" s="32" t="s">
         <v>119</v>
       </c>
@@ -4210,21 +3402,11 @@
         <v>108</v>
       </c>
       <c r="E49" s="26"/>
-      <c r="F49" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="J49" s="24" t="s">
-        <v>148</v>
-      </c>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
       <c r="K49" s="32" t="s">
         <v>119</v>
       </c>
@@ -4267,21 +3449,11 @@
         <v>110</v>
       </c>
       <c r="E50" s="26"/>
-      <c r="F50" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I50" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="J50" s="24" t="s">
-        <v>226</v>
-      </c>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
       <c r="K50" s="32" t="s">
         <v>119</v>
       </c>
@@ -4324,21 +3496,11 @@
         <v>112</v>
       </c>
       <c r="E51" s="26"/>
-      <c r="F51" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H51" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="J51" s="24" t="s">
-        <v>227</v>
-      </c>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
       <c r="K51" s="32" t="s">
         <v>119</v>
       </c>
@@ -4381,21 +3543,11 @@
         <v>114</v>
       </c>
       <c r="E52" s="26"/>
-      <c r="F52" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="G52" s="24">
-        <v>101</v>
-      </c>
-      <c r="H52" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="J52" s="24" t="s">
-        <v>228</v>
-      </c>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
       <c r="K52" s="32" t="s">
         <v>119</v>
       </c>
@@ -4438,21 +3590,11 @@
         <v>116</v>
       </c>
       <c r="E53" s="31"/>
-      <c r="F53" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="G53" s="24">
-        <v>65</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I53" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="J53" s="24" t="s">
-        <v>229</v>
-      </c>
+      <c r="F53" s="31"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="24"/>
       <c r="K53" s="32" t="s">
         <v>119</v>
       </c>
@@ -4495,21 +3637,11 @@
         <v>118</v>
       </c>
       <c r="E54" s="26"/>
-      <c r="F54" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="G54" s="24">
-        <v>65</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="I54" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="J54" s="24" t="s">
-        <v>229</v>
-      </c>
+      <c r="F54" s="31"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="24"/>
       <c r="K54" s="32" t="s">
         <v>119</v>
       </c>
